--- a/price of hiring a guide.xlsx
+++ b/price of hiring a guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b353020857715e37/Desktop/R_Projects/central_am_migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenis\OneDrive\Desktop\R_Projects\central_am_migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1DC1E6B9-F159-4088-A07F-475A21520263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D205CB9B-6AFB-4F80-AB7E-78ABFCCA32D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D5A5E-6E8A-4077-B313-B3F13097363C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{2D58B653-F3D0-413B-9DBA-171656426011}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D58B653-F3D0-413B-9DBA-171656426011}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>median price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>mean price</t>
   </si>
@@ -534,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEB2313-52C3-400C-9014-2F9F66EDA18F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:C8"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>2012</v>
@@ -569,97 +566,68 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8">
-        <v>2864.7</v>
+        <v>3019.62</v>
       </c>
       <c r="C2" s="9">
-        <v>2582.6</v>
+        <v>2809.29</v>
       </c>
       <c r="D2" s="8">
-        <v>2998.61</v>
+        <v>3166.56</v>
       </c>
       <c r="E2" s="9">
-        <v>3517.03</v>
+        <v>3585.58</v>
       </c>
       <c r="F2" s="8">
-        <v>3878.64</v>
+        <v>4010.13</v>
       </c>
       <c r="G2" s="9">
-        <v>4337</v>
+        <v>4621.34</v>
       </c>
       <c r="H2" s="8">
-        <v>5333.33</v>
+        <v>5349.77</v>
       </c>
       <c r="I2" s="10">
-        <v>5152.3</v>
+        <v>5398.35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3019.62</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2809.29</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3166.56</v>
-      </c>
-      <c r="E3" s="9">
-        <v>3585.58</v>
-      </c>
-      <c r="F3" s="8">
-        <v>4010.13</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4621.34</v>
-      </c>
-      <c r="H3" s="8">
-        <v>5349.77</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5398.35</v>
-      </c>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="12"/>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/price of hiring a guide.xlsx
+++ b/price of hiring a guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenis\OneDrive\Desktop\R_Projects\central_am_migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b353020857715e37/Desktop/R_Projects/central_am_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D5A5E-6E8A-4077-B313-B3F13097363C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1DC1E6B9-F159-4088-A07F-475A21520263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D205CB9B-6AFB-4F80-AB7E-78ABFCCA32D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D58B653-F3D0-413B-9DBA-171656426011}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{2D58B653-F3D0-413B-9DBA-171656426011}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>median price</t>
+  </si>
   <si>
     <t>mean price</t>
   </si>
@@ -531,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEB2313-52C3-400C-9014-2F9F66EDA18F}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>2012</v>
@@ -566,68 +569,97 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8">
+        <v>2864.7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2582.6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2998.61</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3517.03</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3878.64</v>
+      </c>
+      <c r="G2" s="9">
+        <v>4337</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5333.33</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5152.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
         <v>3019.62</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C3" s="9">
         <v>2809.29</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D3" s="8">
         <v>3166.56</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E3" s="9">
         <v>3585.58</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F3" s="8">
         <v>4010.13</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G3" s="9">
         <v>4621.34</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H3" s="8">
         <v>5349.77</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I3" s="10">
         <v>5398.35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="12"/>
+    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="14"/>
+    <row r="5" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
